--- a/Sheet1.xlsx
+++ b/Sheet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prav\Documents\UiPath\VAHealth\Health Claims Forms Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Prav\Documents\UiPath\HealthClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AEB4F85-1DFE-401C-AE6A-4DEAB73A0BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB352F-FDE0-4381-9AF2-5CA4E32E01BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,39 +33,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Patient Relation To Subscriber</t>
-  </si>
-  <si>
-    <t>Patient Type of Insurance</t>
-  </si>
-  <si>
-    <t>Condition Related to Patient Employment</t>
-  </si>
-  <si>
-    <t>Condition Related to Auto Accident</t>
-  </si>
-  <si>
-    <t>Proof of Payments</t>
-  </si>
-  <si>
-    <t>Was There A Discount</t>
-  </si>
-  <si>
-    <t>Is there a Balance Due</t>
-  </si>
-  <si>
-    <t>Covered by Another Health Plan</t>
-  </si>
-  <si>
-    <t>Did Other Insurance Make Payment</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t>Patient Name</t>
+  </si>
+  <si>
+    <t>Patient MemberID</t>
+  </si>
+  <si>
+    <t>Patient DOB</t>
+  </si>
+  <si>
+    <t>SubscriberID</t>
+  </si>
+  <si>
+    <t>SubscriberMemberID</t>
+  </si>
+  <si>
+    <t>PatientRealtionShipToSUB</t>
+  </si>
+  <si>
+    <t>PatientAddressValue</t>
+  </si>
+  <si>
+    <t>PatientTypeInsurance</t>
+  </si>
+  <si>
+    <t>AttendingPractionerName</t>
+  </si>
+  <si>
+    <t>ProviderBillingAddress</t>
+  </si>
+  <si>
+    <t>PatientEmployment</t>
+  </si>
+  <si>
+    <t>PatientAutoAccident</t>
+  </si>
+  <si>
+    <t>DateOfIncident</t>
+  </si>
+  <si>
+    <t>DateOfSerivce</t>
+  </si>
+  <si>
+    <t>PlaceofSerivce</t>
+  </si>
+  <si>
+    <t>DiagnosisCode</t>
+  </si>
+  <si>
+    <t>ProcedureCode</t>
+  </si>
+  <si>
+    <t>UnitsDay</t>
+  </si>
+  <si>
+    <t>AmountPaid</t>
+  </si>
+  <si>
+    <t>PatientProofOfPayment</t>
+  </si>
+  <si>
+    <t>PaymentInformation</t>
+  </si>
+  <si>
+    <t>CoveredByAnotherHealthPlan</t>
+  </si>
+  <si>
+    <t>OtherSubscriberName</t>
+  </si>
+  <si>
+    <t>NameofOtherInsuranceCompany</t>
+  </si>
+  <si>
+    <t>DidOtherInsuranceMakePayment</t>
+  </si>
+  <si>
+    <t>ProviderTaxIDNumber</t>
+  </si>
+  <si>
+    <t>ProviderTaxIDNumber1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,8 +149,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,53 +465,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.81640625" customWidth="1"/>
-    <col min="3" max="3" width="35.36328125" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="19.36328125" customWidth="1"/>
-    <col min="8" max="8" width="29.08984375" customWidth="1"/>
-    <col min="9" max="9" width="31.7265625" customWidth="1"/>
+    <col min="1" max="1" width="26.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.36328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.08984375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="31.7265625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" customWidth="1"/>
+    <col min="11" max="11" width="19.36328125" customWidth="1"/>
+    <col min="12" max="12" width="22.6328125" customWidth="1"/>
+    <col min="13" max="13" width="17.36328125" customWidth="1"/>
+    <col min="14" max="14" width="17.81640625" customWidth="1"/>
+    <col min="15" max="15" width="13.1796875" customWidth="1"/>
+    <col min="16" max="16" width="12.26953125" customWidth="1"/>
+    <col min="17" max="17" width="12.6328125" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="19" max="19" width="13.6328125" customWidth="1"/>
+    <col min="21" max="21" width="10.7265625" customWidth="1"/>
+    <col min="22" max="22" width="20.81640625" customWidth="1"/>
+    <col min="23" max="23" width="17.6328125" customWidth="1"/>
+    <col min="24" max="24" width="25.08984375" customWidth="1"/>
+    <col min="25" max="25" width="20.1796875" customWidth="1"/>
+    <col min="26" max="26" width="28.6328125" customWidth="1"/>
+    <col min="27" max="27" width="29.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
